--- a/spline/1139.xlsx
+++ b/spline/1139.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Легкая серия" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>z</t>
   </si>
@@ -54,6 +54,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -192,6 +195,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -474,11 +488,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="8.88671875" style="16"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
@@ -490,7 +507,7 @@
       <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -519,7 +536,7 @@
       <c r="C2" s="3">
         <v>26</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="14">
         <v>6</v>
       </c>
       <c r="E2" s="3">
@@ -548,7 +565,7 @@
       <c r="C3" s="3">
         <v>30</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="14">
         <v>6</v>
       </c>
       <c r="E3" s="3">
@@ -577,7 +594,7 @@
       <c r="C4" s="3">
         <v>32</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="14">
         <v>7</v>
       </c>
       <c r="E4" s="3">
@@ -606,7 +623,7 @@
       <c r="C5" s="3">
         <v>36</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="14">
         <v>6</v>
       </c>
       <c r="E5" s="3">
@@ -635,7 +652,7 @@
       <c r="C6" s="3">
         <v>40</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="14">
         <v>7</v>
       </c>
       <c r="E6" s="3">
@@ -664,7 +681,7 @@
       <c r="C7" s="3">
         <v>46</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="14">
         <v>8</v>
       </c>
       <c r="E7" s="3">
@@ -693,7 +710,7 @@
       <c r="C8" s="3">
         <v>50</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="14">
         <v>9</v>
       </c>
       <c r="E8" s="3">
@@ -722,7 +739,7 @@
       <c r="C9" s="3">
         <v>58</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="14">
         <v>10</v>
       </c>
       <c r="E9" s="3">
@@ -751,7 +768,7 @@
       <c r="C10" s="3">
         <v>62</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="14">
         <v>10</v>
       </c>
       <c r="E10" s="3">
@@ -780,7 +797,7 @@
       <c r="C11" s="3">
         <v>68</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="14">
         <v>12</v>
       </c>
       <c r="E11" s="3">
@@ -809,7 +826,7 @@
       <c r="C12" s="3">
         <v>78</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="14">
         <v>12</v>
       </c>
       <c r="E12" s="3">
@@ -838,7 +855,7 @@
       <c r="C13" s="3">
         <v>88</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="14">
         <v>12</v>
       </c>
       <c r="E13" s="3">
@@ -867,7 +884,7 @@
       <c r="C14" s="3">
         <v>98</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="14">
         <v>14</v>
       </c>
       <c r="E14" s="3">
@@ -896,7 +913,7 @@
       <c r="C15" s="3">
         <v>108</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="14">
         <v>16</v>
       </c>
       <c r="E15" s="3">
@@ -925,7 +942,7 @@
       <c r="C16" s="6">
         <v>120</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="15">
         <v>18</v>
       </c>
       <c r="E16" s="6">
@@ -952,28 +969,1148 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="5" width="8.88671875" style="16"/>
+    <col min="6" max="6" width="8.88671875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3">
+        <v>14</v>
+      </c>
+      <c r="D2" s="14">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14">
+        <v>9.9</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3">
+        <v>16</v>
+      </c>
+      <c r="D3" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="E3" s="14">
+        <v>12</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+      <c r="D4" s="14">
+        <v>4</v>
+      </c>
+      <c r="E4" s="14">
+        <v>14.5</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3">
+        <v>22</v>
+      </c>
+      <c r="D5" s="14">
+        <v>5</v>
+      </c>
+      <c r="E5" s="14">
+        <v>16.7</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3">
+        <v>25</v>
+      </c>
+      <c r="D6" s="14">
+        <v>5</v>
+      </c>
+      <c r="E6" s="14">
+        <v>19.5</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1.95</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3">
+        <v>28</v>
+      </c>
+      <c r="D7" s="14">
+        <v>6</v>
+      </c>
+      <c r="E7" s="14">
+        <v>21.3</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1.34</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3">
+        <v>32</v>
+      </c>
+      <c r="D8" s="14">
+        <v>6</v>
+      </c>
+      <c r="E8" s="14">
+        <v>23.4</v>
+      </c>
+      <c r="F8" s="19">
+        <v>1.65</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3">
+        <v>34</v>
+      </c>
+      <c r="D9" s="14">
+        <v>7</v>
+      </c>
+      <c r="E9" s="14">
+        <v>25.9</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1.7</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3">
+        <v>38</v>
+      </c>
+      <c r="D10" s="14">
+        <v>6</v>
+      </c>
+      <c r="E10" s="14">
+        <v>29.4</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3">
+        <v>42</v>
+      </c>
+      <c r="D11" s="14">
+        <v>7</v>
+      </c>
+      <c r="E11" s="14">
+        <v>33.5</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1.02</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3">
+        <v>48</v>
+      </c>
+      <c r="D12" s="14">
+        <v>8</v>
+      </c>
+      <c r="E12" s="14">
+        <v>39.5</v>
+      </c>
+      <c r="F12" s="19">
+        <v>2.57</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3">
+        <v>54</v>
+      </c>
+      <c r="D13" s="14">
+        <v>9</v>
+      </c>
+      <c r="E13" s="14">
+        <v>42.7</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3">
+        <v>52</v>
+      </c>
+      <c r="C14" s="3">
+        <v>60</v>
+      </c>
+      <c r="D14" s="14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14">
+        <v>48.7</v>
+      </c>
+      <c r="F14" s="19">
+        <v>2.44</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3">
+        <v>56</v>
+      </c>
+      <c r="C15" s="3">
+        <v>65</v>
+      </c>
+      <c r="D15" s="14">
+        <v>10</v>
+      </c>
+      <c r="E15" s="14">
+        <v>52.2</v>
+      </c>
+      <c r="F15" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3">
+        <v>62</v>
+      </c>
+      <c r="C16" s="3">
+        <v>72</v>
+      </c>
+      <c r="D16" s="14">
+        <v>12</v>
+      </c>
+      <c r="E16" s="14">
+        <v>57.8</v>
+      </c>
+      <c r="F16" s="19">
+        <v>2.4</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3">
+        <v>72</v>
+      </c>
+      <c r="C17" s="3">
+        <v>82</v>
+      </c>
+      <c r="D17" s="14">
+        <v>12</v>
+      </c>
+      <c r="E17" s="14">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3">
+        <v>82</v>
+      </c>
+      <c r="C18" s="3">
+        <v>92</v>
+      </c>
+      <c r="D18" s="14">
+        <v>12</v>
+      </c>
+      <c r="E18" s="14">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="F18" s="19">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3">
+        <v>92</v>
+      </c>
+      <c r="C19" s="3">
+        <v>102</v>
+      </c>
+      <c r="D19" s="14">
+        <v>14</v>
+      </c>
+      <c r="E19" s="14">
+        <v>87.3</v>
+      </c>
+      <c r="F19" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3">
+        <v>102</v>
+      </c>
+      <c r="C20" s="3">
+        <v>112</v>
+      </c>
+      <c r="D20" s="14">
+        <v>16</v>
+      </c>
+      <c r="E20" s="14">
+        <v>97.7</v>
+      </c>
+      <c r="F20" s="19">
+        <v>6.3</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6">
+        <v>112</v>
+      </c>
+      <c r="C21" s="6">
+        <v>125</v>
+      </c>
+      <c r="D21" s="15">
+        <v>18</v>
+      </c>
+      <c r="E21" s="15">
+        <v>106.3</v>
+      </c>
+      <c r="F21" s="20">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="9" width="8.88671875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3">
+        <v>20</v>
+      </c>
+      <c r="D2" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="E2" s="14">
+        <v>14.1</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I2" s="22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3">
+        <v>23</v>
+      </c>
+      <c r="D3" s="14">
+        <v>3</v>
+      </c>
+      <c r="E3" s="14">
+        <v>15.6</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3">
+        <v>26</v>
+      </c>
+      <c r="D4" s="14">
+        <v>3</v>
+      </c>
+      <c r="E4" s="14">
+        <v>18.5</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3">
+        <v>29</v>
+      </c>
+      <c r="D5" s="14">
+        <v>4</v>
+      </c>
+      <c r="E5" s="14">
+        <v>20.3</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3">
+        <v>32</v>
+      </c>
+      <c r="D6" s="14">
+        <v>4</v>
+      </c>
+      <c r="E6" s="14">
+        <v>23</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3">
+        <v>35</v>
+      </c>
+      <c r="D7" s="14">
+        <v>4</v>
+      </c>
+      <c r="E7" s="14">
+        <v>24.4</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3">
+        <v>40</v>
+      </c>
+      <c r="D8" s="14">
+        <v>5</v>
+      </c>
+      <c r="E8" s="14">
+        <v>28</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45</v>
+      </c>
+      <c r="D9" s="14">
+        <v>5</v>
+      </c>
+      <c r="E9" s="14">
+        <v>31.3</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3">
+        <v>52</v>
+      </c>
+      <c r="D10" s="14">
+        <v>6</v>
+      </c>
+      <c r="E10" s="14">
+        <v>36.9</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I10" s="22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3">
+        <v>56</v>
+      </c>
+      <c r="D11" s="14">
+        <v>7</v>
+      </c>
+      <c r="E11" s="14">
+        <v>40.9</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3">
+        <v>52</v>
+      </c>
+      <c r="C12" s="3">
+        <v>60</v>
+      </c>
+      <c r="D12" s="14">
+        <v>5</v>
+      </c>
+      <c r="E12" s="14">
+        <v>47</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>56</v>
+      </c>
+      <c r="C13" s="3">
+        <v>65</v>
+      </c>
+      <c r="D13" s="14">
+        <v>5</v>
+      </c>
+      <c r="E13" s="14">
+        <v>50.6</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3">
+        <v>62</v>
+      </c>
+      <c r="C14" s="3">
+        <v>72</v>
+      </c>
+      <c r="D14" s="14">
+        <v>6</v>
+      </c>
+      <c r="E14" s="14">
+        <v>56.1</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3">
+        <v>82</v>
+      </c>
+      <c r="D15" s="14">
+        <v>7</v>
+      </c>
+      <c r="E15" s="14">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="I15" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3">
+        <v>82</v>
+      </c>
+      <c r="C16" s="3">
+        <v>92</v>
+      </c>
+      <c r="D16" s="14">
+        <v>6</v>
+      </c>
+      <c r="E16" s="14">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3">
+        <v>92</v>
+      </c>
+      <c r="C17" s="3">
+        <v>102</v>
+      </c>
+      <c r="D17" s="14">
+        <v>7</v>
+      </c>
+      <c r="E17" s="14">
+        <v>85.5</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3">
+        <v>102</v>
+      </c>
+      <c r="C18" s="3">
+        <v>115</v>
+      </c>
+      <c r="D18" s="14">
+        <v>8</v>
+      </c>
+      <c r="E18" s="14">
+        <v>94</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>20</v>
+      </c>
+      <c r="B19" s="6">
+        <v>112</v>
+      </c>
+      <c r="C19" s="6">
+        <v>125</v>
+      </c>
+      <c r="D19" s="15">
+        <v>9</v>
+      </c>
+      <c r="E19" s="15">
+        <v>104</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="23">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>